--- a/Manufacturing/BOM and CPL/Explorer_top_cpl.xlsx
+++ b/Manufacturing/BOM and CPL/Explorer_top_cpl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panziyue/Downloads/Explorer CPLBOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panziyue/Documents/eagle/projects/SSTuino II/Manufacturing/BOM and CPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C32A7-0924-B841-8BC9-63074139AF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAE9E9C-CB50-B746-84A5-8B40CCF748A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="209" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1244,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2.54</v>
+        <v>26.67</v>
       </c>
       <c r="C16">
         <v>41.91</v>
@@ -1371,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>2.54</v>
+        <v>26.67</v>
       </c>
       <c r="C17">
         <v>19.05</v>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1516,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>5</v>
       </c>
       <c r="E32">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="E34">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
